--- a/Docs/Adams LTE/Adams LTE.xlsx
+++ b/Docs/Adams LTE/Adams LTE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashalov\source\repos\DFW2\Docs\Adams LTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E9A09B-6195-4D33-B09A-1FE8EFE99EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="6075" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{FAD7BED2-0A34-43EE-BEB2-93CF19EC880D}"/>
+    <workbookView xWindow="9075" yWindow="6075" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Adams-Bashforth 2" sheetId="1" r:id="rId1"/>
     <sheet name="Adams-Bashforth 4" sheetId="2" r:id="rId2"/>
     <sheet name="Adams-Moulton 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -57,15 +57,51 @@
   <si>
     <t>Alpha</t>
   </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>c3(α)</t>
+  </si>
+  <si>
+    <t>c3(α)l</t>
+  </si>
+  <si>
+    <t>c2(α)</t>
+  </si>
+  <si>
+    <t>tau2</t>
+  </si>
+  <si>
+    <t>tau1</t>
+  </si>
+  <si>
+    <t>rsame</t>
+  </si>
+  <si>
+    <t>rs2(α)</t>
+  </si>
+  <si>
+    <t>rs1(α)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF6A6A6A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -92,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -110,6 +147,4939 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c3(α)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350400000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30350400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31350400000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32350400000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34350400000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3535040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3635040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37350400000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38350400000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39350400000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40350400000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41350400000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42350400000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4735040000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5335040000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56350400000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59350400000000025</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60350400000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61350400000000027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62350400000000028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63350400000000029</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6435040000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65350400000000031</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68350400000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69350400000000034</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70350400000000035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71350400000000036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72350400000000037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73350400000000038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74350400000000039</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7535040000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7635040000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77350400000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78350400000000042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79350400000000043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80350400000000044</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81350400000000045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82350400000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83350400000000047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86350400000000049</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8735040000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88350400000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89350400000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90350400000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91350400000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92350400000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95350400000000057</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96350400000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97350400000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9835040000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99350400000000061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0833333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8333333333333324E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5833333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0833333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5833333333333341E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3333333333333339E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.083333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8333333333333327E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5833333333333339E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3333333333333344E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0833333333333341E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8333333333333339E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5833333333333337E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3333333333333335E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.833333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5833333333333328E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3333333333333326E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2457333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9957333333333336E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7457333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4957333333333331E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2457333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9957333333333327E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7457333333333325E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4957333333333322E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.245733333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.957333333333318E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4573333333333158E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9573333333333136E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4573333333333114E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2666666666690833E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5426666666666931E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0426666666666953E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5426666666666975E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.00426666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2542666666666702E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5042666666666704E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7542666666666706E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0042666666666709E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2542666666666711E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5042666666666713E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7542666666666715E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0042666666666717E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.254266666666672E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5042666666666722E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7542666666666724E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0042666666666726E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2542666666666708E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.504266666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7542666666666712E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0042666666666714E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2542666666666717E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5042666666666719E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7542666666666721E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0042666666666723E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.2542666666666732E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5042666666666735E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.7542666666666737E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.0042666666666739E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.2542666666666741E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5042666666666744E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7542666666666746E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.0042666666666748E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.254266666666675E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.5042666666666752E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.7542666666666769E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.0042666666666757E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.2542666666666731E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.5042666666666761E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.7542666666666777E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.10004266666666677</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.10254266666666674</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10504266666666677</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.10754266666666679</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.11004266666666677</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.11254266666666675</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.11504266666666678</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1175426666666668</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12004266666666678</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.12254266666666676</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.12504266666666677</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.1275426666666668</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13004266666666678</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.13254266666666678</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.13504266666666678</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.13754266666666681</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.14004266666666679</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.14254266666666679</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.14504266666666679</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14754266666666682</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1500426666666668</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1525426666666668</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1550426666666668</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15754266666666683</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.16004266666666681</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16254266666666681</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.16504266666666681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c3(α)l</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350400000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30350400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31350400000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32350400000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34350400000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3535040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3635040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37350400000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38350400000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39350400000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40350400000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41350400000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42350400000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4735040000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5335040000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56350400000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59350400000000025</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60350400000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61350400000000027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62350400000000028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63350400000000029</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6435040000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65350400000000031</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68350400000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69350400000000034</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70350400000000035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71350400000000036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72350400000000037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73350400000000038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74350400000000039</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7535040000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7635040000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77350400000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78350400000000042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79350400000000043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80350400000000044</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81350400000000045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82350400000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83350400000000047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86350400000000049</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8735040000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88350400000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89350400000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90350400000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91350400000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92350400000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95350400000000057</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96350400000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97350400000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9835040000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99350400000000061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3333333333333338E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8333333333333328E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18508533333333332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19008533333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19508533333333333</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20008533333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20508533333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21008533333333335</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21508533333333335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.22008533333333336</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22508533333333336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23008533333333336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23508533333333337</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24008533333333337</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24508533333333338</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25008533333333338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25508533333333339</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26008533333333339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26508533333333339</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2700853333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2750853333333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28008533333333341</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.28508533333333341</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.29008533333333342</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29508533333333342</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.30008533333333343</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30508533333333343</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.31008533333333343</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.31508533333333344</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.32008533333333344</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.32508533333333345</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.33008533333333345</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.3350853333333334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.34008533333333341</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.34508533333333347</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.35008533333333341</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.35508533333333342</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36008533333333342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36508533333333348</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.37008533333333343</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37508533333333344</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.38008533333333344</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.3850853333333335</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.39008533333333345</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.39508533333333345</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.40008533333333346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.40508533333333352</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41008533333333347</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.41508533333333347</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42008533333333348</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.42508533333333354</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43008533333333349</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.43508533333333349</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.44008533333333349</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44508533333333355</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.4500853333333335</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.45508533333333351</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.46008533333333351</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.46508533333333357</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.47008533333333352</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.47508533333333353</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.48008533333333353</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.48508533333333359</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.49008533333333354</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.49508533333333354</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.5000853333333336</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.50508533333333361</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.51008533333333361</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.51508533333333351</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52008533333333362</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.52508533333333363</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.53008533333333363</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53508533333333352</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.54008533333333364</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54508533333333364</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.55008533333333365</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.55508533333333354</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.56008533333333366</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.56508533333333366</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.57008533333333367</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.57508533333333356</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.58008533333333367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c2(α)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350400000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30350400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31350400000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32350400000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34350400000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3535040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3635040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37350400000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38350400000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39350400000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40350400000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41350400000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42350400000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4735040000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5335040000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56350400000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59350400000000025</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60350400000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61350400000000027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62350400000000028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63350400000000029</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6435040000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65350400000000031</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68350400000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69350400000000034</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70350400000000035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71350400000000036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72350400000000037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73350400000000038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74350400000000039</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7535040000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7635040000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77350400000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78350400000000042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79350400000000043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80350400000000044</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81350400000000045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82350400000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83350400000000047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86350400000000049</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8735040000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88350400000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89350400000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90350400000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91350400000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92350400000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95350400000000057</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96350400000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97350400000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9835040000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99350400000000061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4999999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.101752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.106752</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.111752</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11675200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12175200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.126752</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13175200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13675200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14175200000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14675200000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15175200000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.15675200000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16175200000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17175200000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17675200000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.18175200000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18675200000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19175200000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19675200000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20175200000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20675200000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.21175200000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21675200000000008</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.22175200000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.22675200000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2317520000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2367520000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.24175200000000011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24675200000000011</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25175200000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25675200000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2617520000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2667520000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2717520000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.27675200000000011</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.28175200000000011</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28675200000000012</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.29175200000000012</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.29675200000000013</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.30175200000000013</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.30675200000000014</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.31175200000000014</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.31675200000000014</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32175200000000015</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.32675200000000015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33175200000000016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33675200000000016</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.34175200000000017</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.34675200000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35175200000000018</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.35675200000000018</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36175200000000018</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.36675200000000019</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.37175200000000019</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.3767520000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.3817520000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38675200000000021</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.39175200000000021</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.39675200000000022</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.40175200000000022</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.40675200000000022</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41175200000000023</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41675200000000023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.42175200000000024</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42675200000000024</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.43175200000000025</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.43675200000000025</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.44175200000000026</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.44675200000000026</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.45175200000000026</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.45675200000000027</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46175200000000027</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.46675200000000028</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.47175200000000028</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.47675200000000029</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.48175200000000029</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.4867520000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.4917520000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4967520000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="126914880"/>
+        <c:axId val="126918408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126914880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126918408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126918408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126914880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rs2(α)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350400000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30350400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31350400000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32350400000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34350400000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3535040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3635040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37350400000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38350400000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39350400000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40350400000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41350400000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42350400000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4735040000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5335040000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56350400000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59350400000000025</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60350400000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61350400000000027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62350400000000028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63350400000000029</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6435040000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65350400000000031</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68350400000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69350400000000034</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70350400000000035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71350400000000036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72350400000000037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73350400000000038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74350400000000039</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7535040000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7635040000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77350400000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78350400000000042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79350400000000043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80350400000000044</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81350400000000045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82350400000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83350400000000047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86350400000000049</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8735040000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88350400000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89350400000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90350400000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91350400000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92350400000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95350400000000057</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96350400000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97350400000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9835040000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99350400000000061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2.2894284851066637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3127916138892965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3371385779536773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.362544248544665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3890919115885199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4168745401069995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4459963120192905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4765744316413394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5087413298623935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5426473402846463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5784639787785961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6163879951735742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6566464229565274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6995029330750806</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7452659121946703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7942988510822864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8470338722008033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.903989590899581</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9657950645278484</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0332224624949098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1072325059538586</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1349387117758898</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2198251085082861</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.314722792940958</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4218996825579366</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5444370825823399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6866549864407756</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8548489502312928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0586531893324365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3137831015859813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6482090441657924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.1184541189234061</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.8647651523404534</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.4104624229273783</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.617856063827887</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3266175756977363</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.8314950720875283</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0990784639311864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.635006177967794</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3039779706953203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.050964052329407</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.8485883679238682</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6814154626116151</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5399590397683718</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.4180085314158197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3112960009791519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.216773682067664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1321961692992017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.0558658429109515</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9864709469077662</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9229788261558949</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8645633447981158</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8105542243354464</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7604008605233186</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7136459545323315</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.669905949834861</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6288562849768291</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.590220116381762</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.5537595824707413</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5192689565448956</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4865692223511688</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.4555037344393846</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4259347149880326</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3977404023040751</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3708127118829587</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.345055304181582</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.320381977768593</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.2967153247748597</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2739855993058828</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2521297599142338</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2310906552280674</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2108163280120219</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.191259417749873</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1723766456140727</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1541283686699138</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1364781925335201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1193926336000555</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1028408234852383</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0867942495585918</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0712265264517864</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0561131942469451</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0414315397246754</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0271604376084356</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0132802092034199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9997724962122314</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9866201478305721</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9738071194953344</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9613183818841056</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9491398389564853</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9372582539898653</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9256611827002768</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9143369126565735</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9032744082968927</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.892463260942699</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.8818936432800346</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.8715562678416884</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8614423490794543</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.8515435686637027</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8418520436892809</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8323602975031421</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8230612329008942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rs1(α)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.213504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25350400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27350400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28350400000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350400000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30350400000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31350400000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32350400000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33350400000000008</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34350400000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3535040000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3635040000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.37350400000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38350400000000012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39350400000000013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40350400000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.41350400000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42350400000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4735040000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50350400000000017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.51350400000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52350400000000019</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5335040000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54350400000000021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.55350400000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56350400000000023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58350400000000024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59350400000000025</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60350400000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61350400000000027</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62350400000000028</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63350400000000029</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6435040000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65350400000000031</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67350400000000032</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68350400000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69350400000000034</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70350400000000035</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71350400000000036</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72350400000000037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.73350400000000038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.74350400000000039</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.7535040000000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7635040000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77350400000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.78350400000000042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79350400000000043</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.80350400000000044</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81350400000000045</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82350400000000046</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83350400000000047</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.85350400000000048</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86350400000000049</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8735040000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88350400000000051</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.89350400000000052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90350400000000053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.91350400000000054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.92350400000000055</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.94350400000000056</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95350400000000057</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96350400000000058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97350400000000059</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.9835040000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99350400000000061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.142135623730951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1649658092772608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0710678118654755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.324555320336759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7735026918962573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3452248382484875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.714045207910317</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4721359549995796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2640143271122088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0824829046386304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9223227027636809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7796447300922722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6514837167011076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4299717028501768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2444284226152504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1622776601683791</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1349348720910513</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0606381679649486</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9913852495487263</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.926630104049913</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8659060415037869</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8088114680707688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7549986585914796</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7041648086807344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6560448388350184</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6104055590520887</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5670409000540828</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5257679881126096</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4864238925972018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4488629141009719</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.412954310071362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3785803769047229</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.3456348243052139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3140213906904563</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2836526585111994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.254449036244119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2263378800354476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1992527329053053</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.1731326633587225</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1479216884090313</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1235682685698474</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1000248644415929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.077247546206566</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0551956487299097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0338314661026726</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0131199804048245</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9930286202479526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9735270453091613</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9545869536131397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9361819087774677</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9182871848223706</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9008796264726764</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8839375231568005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8674404951434089</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8513693904577146</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8357061913917285</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8204339295707621</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8055366086658642</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7909991339518319</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7768072480055721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7629474719221094</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7494070514972835</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.736173907888702</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7232365923211057</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7105842444500921</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6982065540400462</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6860937256489534</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6742364460451811</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6626258541099286</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6512535130043042</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6401113844023669</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.629191804611317</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6184874624176295</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6079913785136257</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5976968863729328</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5875976144557711</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5776874696361474</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5679606217530162</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5584114891964207</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5490347254476522</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5398252064996931</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5307780190907017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5218884496891558</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5131519741745643</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5045642481624197</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.496121097926395</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4878185118746963</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4796526325410304</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4716197490538669</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4637162900506007</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4559388170058818</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4482840179458047</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4407487015218554</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4333297914205356</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4260243210864205</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4188294287380896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="126281304"/>
+        <c:axId val="126284832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="126281304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126284832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="126284832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="126281304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +5378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D50B8E-39F3-4E84-A8B8-90B74B331BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -726,7 +5696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095B1329-DE84-4883-AFB2-398B7B38A662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1046,16 +6016,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6BF36E-D7E4-4FA5-BCD6-E1C62A0E0AE6}">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,13 +6054,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <f>0.5*(1+$H$2)</f>
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1107,24 +6077,32 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <f>POWER(-1,$K$1)*(1/FACT($K$1)*SUM(D3:D6)+1/FACT($K$1-1)*SUM(E2:E6))</f>
-        <v>0.16666666666666666</v>
+        <v>-5.8333333333333348E-2</v>
       </c>
       <c r="L2">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="P2">
+        <f>POWER(-1,$K$1-1)*(1/FACT($K$1-1)*SUM(D2:D6)+1/FACT($K$1-1-1)*SUM(E2:E6))</f>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
       <c r="B3">
         <f>0.5*(1-$H$2)</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
@@ -1136,7 +6114,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E12" si="0">POWER(C3,$K$1-1)*B3</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F12" si="1">A3*C3</f>
@@ -1144,10 +6122,14 @@
       </c>
       <c r="J3">
         <f>-1/12-0.5*$H$2</f>
+        <v>-0.13333333333333333</v>
+      </c>
+      <c r="L3">
+        <f>-7/12</f>
         <v>-0.58333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1171,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1195,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1224,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1248,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1272,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1296,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1320,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1343,8 +6325,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <f>1/ABS(J2)</f>
+        <v>17.142857142857139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <f>POWER(1/L11,1/3)</f>
+        <v>0.38782779524176036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1367,8 +6363,2687 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <f>1/ABS(P2)</f>
+        <v>20.000000000000004</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <f>POWER(1/L12,1/2)</f>
+        <v>0.22360679774997894</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>ABS((3*A2-1)/12)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C2">
+        <f>ABS((-1-6*A2)/12)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2">
+        <f>ABS(A2/2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>POWER(1/B2,1/3)</f>
+        <v>2.2894284851066637</v>
+      </c>
+      <c r="F2" t="e">
+        <f>POWER(1/D2,1/2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="b">
+        <f>A23=1/6*(1-3/POWER(1+2*SQRT(7),1/3)+POWER(1+2*SQRT(7),1/3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">ABS((3*A3-1)/12)</f>
+        <v>8.0833333333333326E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3" si="1">ABS((-1-6*A3)/12)</f>
+        <v>8.8333333333333333E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">ABS(A3/2)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">POWER(1/B3,1/3)</f>
+        <v>2.3127916138892965</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="4">POWER(1/D3,1/2)</f>
+        <v>14.142135623730951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A37" si="5">A3+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>7.8333333333333324E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C37" si="6">ABS((-1-6*A4)/12)</f>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>2.3371385779536773</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="5"/>
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>7.5833333333333336E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="6"/>
+        <v>9.8333333333333328E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2.362544248544665</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>8.1649658092772608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="6"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>2.3890919115885199</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>7.0710678118654755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="6"/>
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2.4168745401069995</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>6.324555320336759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.8333333333333329E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="6"/>
+        <v>0.11333333333333334</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>2.4459963120192905</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>5.7735026918962573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.5833333333333341E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="6"/>
+        <v>0.11833333333333333</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2.4765744316413394</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>5.3452248382484875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="6"/>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2.5087413298623935</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="5"/>
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6.083333333333333E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="6"/>
+        <v>0.12833333333333333</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2.5426473402846463</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>4.714045207910317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2.5784639787785961</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>4.4721359549995796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>5.5833333333333339E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="6"/>
+        <v>0.13833333333333334</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>2.6163879951735742</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>4.2640143271122088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333344E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="6"/>
+        <v>0.14333333333333331</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>2.6566464229565274</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>4.0824829046386304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>5.0833333333333341E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>0.14833333333333332</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>6.4999999999999988E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>2.6995029330750806</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>3.9223227027636809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4.8333333333333339E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>2.7452659121946703</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>3.7796447300922722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>2.7942988510822864</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>3.6514837167011076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>0.16333333333333333</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2.8470338722008033</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>3.5355339059327378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4.0833333333333333E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="6"/>
+        <v>0.16833333333333333</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>2.903989590899581</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>3.4299717028501768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="5"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.833333333333333E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>2.9657950645278484</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5833333333333328E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>0.17833333333333334</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000015E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>3.0332224624949098</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>3.2444284226152504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>3.1072325059538586</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>3.1622776601683791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.20350399999999999</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.2457333333333338E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="6"/>
+        <v>0.18508533333333332</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.101752</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>3.1349387117758898</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>3.1349348720910513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>0.213504</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.9957333333333336E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="6"/>
+        <v>0.19008533333333333</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.106752</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>3.2198251085082861</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>3.0606381679649486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>0.22350400000000001</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.7457333333333334E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>0.19508533333333333</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.111752</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>3.314722792940958</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>2.9913852495487263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="5"/>
+        <v>0.23350400000000002</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.4957333333333331E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="6"/>
+        <v>0.20008533333333334</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.11675200000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>3.4218996825579366</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>2.926630104049913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>0.24350400000000003</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.2457333333333329E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>0.20508533333333334</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.12175200000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>3.5444370825823399</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>2.8659060415037869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="5"/>
+        <v>0.25350400000000001</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.9957333333333327E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="6"/>
+        <v>0.21008533333333335</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.126752</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>3.6866549864407756</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>2.8088114680707688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="5"/>
+        <v>0.26350400000000002</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.7457333333333325E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="6"/>
+        <v>0.21508533333333335</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.13175200000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>3.8548489502312928</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>2.7549986585914796</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="5"/>
+        <v>0.27350400000000002</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.4957333333333322E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="6"/>
+        <v>0.22008533333333336</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.13675200000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>4.0586531893324365</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>2.7041648086807344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="5"/>
+        <v>0.28350400000000003</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.245733333333332E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="6"/>
+        <v>0.22508533333333336</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.14175200000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>4.3137831015859813</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>2.6560448388350184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="5"/>
+        <v>0.29350400000000004</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>9.957333333333318E-3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>0.23008533333333336</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.14675200000000002</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>4.6482090441657924</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>2.6104055590520887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="5"/>
+        <v>0.30350400000000005</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>7.4573333333333158E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>0.23508533333333337</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0.15175200000000003</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>5.1184541189234061</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>2.5670409000540828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="5"/>
+        <v>0.31350400000000006</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>4.9573333333333136E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="6"/>
+        <v>0.24008533333333337</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.15675200000000003</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>5.8647651523404534</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>2.5257679881126096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>0.32350400000000007</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.4573333333333114E-3</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="6"/>
+        <v>0.24508533333333338</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.16175200000000003</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>7.4104624229273783</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>2.4864238925972018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>0.33350400000000008</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>4.2666666666690833E-5</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="6"/>
+        <v>0.25008533333333338</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0.16675200000000004</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>28.617856063827887</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>2.4488629141009719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="5"/>
+        <v>0.34350400000000009</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.5426666666666931E-3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="6"/>
+        <v>0.25508533333333339</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0.17175200000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>7.3266175756977363</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>2.412954310071362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ref="A38:A101" si="7">A37+0.01</f>
+        <v>0.3535040000000001</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>5.0426666666666953E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C101" si="8">ABS((-1-6*A38)/12)</f>
+        <v>0.26008533333333339</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0.17675200000000005</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>5.8314950720875283</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>2.3785803769047229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="7"/>
+        <v>0.3635040000000001</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>7.5426666666666975E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>0.26508533333333339</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>0.18175200000000005</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>5.0990784639311864</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>2.3456348243052139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="7"/>
+        <v>0.37350400000000011</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.00426666666667E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>0.2700853333333334</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>0.18675200000000006</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>4.635006177967794</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>2.3140213906904563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="7"/>
+        <v>0.38350400000000012</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.2542666666666702E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>0.2750853333333334</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.19175200000000006</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>4.3039779706953203</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>2.2836526585111994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="7"/>
+        <v>0.39350400000000013</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.5042666666666704E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>0.28008533333333341</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>0.19675200000000007</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>4.050964052329407</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>2.254449036244119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="7"/>
+        <v>0.40350400000000014</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.7542666666666706E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="8"/>
+        <v>0.28508533333333341</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>0.20175200000000007</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>3.8485883679238682</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>2.2263378800354476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="7"/>
+        <v>0.41350400000000015</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.0042666666666709E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>0.29008533333333342</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>0.20675200000000007</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>3.6814154626116151</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>2.1992527329053053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="7"/>
+        <v>0.42350400000000016</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.2542666666666711E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>0.29508533333333342</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0.21175200000000008</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>3.5399590397683718</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>2.1731326633587225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="7"/>
+        <v>0.43350400000000017</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.5042666666666713E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>0.30008533333333343</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0.21675200000000008</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>3.4180085314158197</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>2.1479216884090313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="7"/>
+        <v>0.44350400000000018</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2.7542666666666715E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>0.30508533333333343</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>0.22175200000000009</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>3.3112960009791519</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>2.1235682685698474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="7"/>
+        <v>0.45350400000000018</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>3.0042666666666717E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>0.31008533333333343</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>0.22675200000000009</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>3.216773682067664</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>2.1000248644415929</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="7"/>
+        <v>0.46350400000000019</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>3.254266666666672E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>0.31508533333333344</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>0.2317520000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>3.1321961692992017</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>2.077247546206566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="7"/>
+        <v>0.4735040000000002</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>3.5042666666666722E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>0.32008533333333344</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0.2367520000000001</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>3.0558658429109515</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>2.0551956487299097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="7"/>
+        <v>0.48350400000000021</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>3.7542666666666724E-2</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>0.32508533333333345</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>0.24175200000000011</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>2.9864709469077662</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>2.0338314661026726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="7"/>
+        <v>0.49350400000000022</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>4.0042666666666726E-2</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>0.33008533333333345</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>0.24675200000000011</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>2.9229788261558949</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>2.0131199804048245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="7"/>
+        <v>0.50350400000000017</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4.2542666666666708E-2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>0.3350853333333334</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>0.25175200000000009</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>2.8645633447981158</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>1.9930286202479526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="7"/>
+        <v>0.51350400000000018</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>4.504266666666671E-2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>0.34008533333333341</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>0.25675200000000009</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>2.8105542243354464</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>1.9735270453091613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="7"/>
+        <v>0.52350400000000019</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>4.7542666666666712E-2</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>0.34508533333333347</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>0.2617520000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>2.7604008605233186</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>1.9545869536131397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="7"/>
+        <v>0.5335040000000002</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>5.0042666666666714E-2</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>0.35008533333333341</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>0.2667520000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>2.7136459545323315</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>1.9361819087774677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="7"/>
+        <v>0.54350400000000021</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>5.2542666666666717E-2</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>0.35508533333333342</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.2717520000000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>2.669905949834861</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>1.9182871848223706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="7"/>
+        <v>0.55350400000000022</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>5.5042666666666719E-2</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="8"/>
+        <v>0.36008533333333342</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0.27675200000000011</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>2.6288562849768291</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>1.9008796264726764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="7"/>
+        <v>0.56350400000000023</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>5.7542666666666721E-2</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="8"/>
+        <v>0.36508533333333348</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0.28175200000000011</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>2.590220116381762</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>1.8839375231568005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="7"/>
+        <v>0.57350400000000024</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>6.0042666666666723E-2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="8"/>
+        <v>0.37008533333333343</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>0.28675200000000012</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>2.5537595824707413</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>1.8674404951434089</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="7"/>
+        <v>0.58350400000000024</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>6.2542666666666732E-2</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="8"/>
+        <v>0.37508533333333344</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0.29175200000000012</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>2.5192689565448956</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>1.8513693904577146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="7"/>
+        <v>0.59350400000000025</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>6.5042666666666735E-2</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="8"/>
+        <v>0.38008533333333344</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0.29675200000000013</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>2.4865692223511688</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>1.8357061913917285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="7"/>
+        <v>0.60350400000000026</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>6.7542666666666737E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="8"/>
+        <v>0.3850853333333335</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0.30175200000000013</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>2.4555037344393846</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>1.8204339295707621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="7"/>
+        <v>0.61350400000000027</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>7.0042666666666739E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="8"/>
+        <v>0.39008533333333345</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0.30675200000000014</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>2.4259347149880326</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>1.8055366086658642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="7"/>
+        <v>0.62350400000000028</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>7.2542666666666741E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="8"/>
+        <v>0.39508533333333345</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0.31175200000000014</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>2.3977404023040751</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>1.7909991339518319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="7"/>
+        <v>0.63350400000000029</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>7.5042666666666744E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="8"/>
+        <v>0.40008533333333346</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.31675200000000014</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>2.3708127118829587</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>1.7768072480055721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="7"/>
+        <v>0.6435040000000003</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B102" si="9">ABS((3*A67-1)/12)</f>
+        <v>7.7542666666666746E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="8"/>
+        <v>0.40508533333333352</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D102" si="10">ABS(A67/2)</f>
+        <v>0.32175200000000015</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E102" si="11">POWER(1/B67,1/3)</f>
+        <v>2.345055304181582</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F102" si="12">POWER(1/D67,1/2)</f>
+        <v>1.7629474719221094</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="7"/>
+        <v>0.65350400000000031</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="9"/>
+        <v>8.0042666666666748E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="8"/>
+        <v>0.41008533333333347</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="10"/>
+        <v>0.32675200000000015</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>2.320381977768593</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="12"/>
+        <v>1.7494070514972835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="7"/>
+        <v>0.66350400000000032</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="9"/>
+        <v>8.254266666666675E-2</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>0.41508533333333347</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="10"/>
+        <v>0.33175200000000016</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>2.2967153247748597</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="12"/>
+        <v>1.736173907888702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="7"/>
+        <v>0.67350400000000032</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="9"/>
+        <v>8.5042666666666752E-2</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>0.42008533333333348</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="10"/>
+        <v>0.33675200000000016</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>2.2739855993058828</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="12"/>
+        <v>1.7232365923211057</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="7"/>
+        <v>0.68350400000000033</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="9"/>
+        <v>8.7542666666666769E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>0.42508533333333354</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="10"/>
+        <v>0.34175200000000017</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>2.2521297599142338</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="12"/>
+        <v>1.7105842444500921</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="7"/>
+        <v>0.69350400000000034</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="9"/>
+        <v>9.0042666666666757E-2</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>0.43008533333333349</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="10"/>
+        <v>0.34675200000000017</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>2.2310906552280674</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="12"/>
+        <v>1.6982065540400462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="7"/>
+        <v>0.70350400000000035</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="9"/>
+        <v>9.2542666666666731E-2</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>0.43508533333333349</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="10"/>
+        <v>0.35175200000000018</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>2.2108163280120219</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="12"/>
+        <v>1.6860937256489534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="7"/>
+        <v>0.71350400000000036</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="9"/>
+        <v>9.5042666666666761E-2</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>0.44008533333333349</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="10"/>
+        <v>0.35675200000000018</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>2.191259417749873</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="12"/>
+        <v>1.6742364460451811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="7"/>
+        <v>0.72350400000000037</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="9"/>
+        <v>9.7542666666666777E-2</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>0.44508533333333355</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="10"/>
+        <v>0.36175200000000018</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>2.1723766456140727</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>1.6626258541099286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="7"/>
+        <v>0.73350400000000038</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="9"/>
+        <v>0.10004266666666677</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>0.4500853333333335</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="10"/>
+        <v>0.36675200000000019</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>2.1541283686699138</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="12"/>
+        <v>1.6512535130043042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="7"/>
+        <v>0.74350400000000039</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="9"/>
+        <v>0.10254266666666674</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>0.45508533333333351</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="10"/>
+        <v>0.37175200000000019</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>2.1364781925335201</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="12"/>
+        <v>1.6401113844023669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="7"/>
+        <v>0.7535040000000004</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="9"/>
+        <v>0.10504266666666677</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>0.46008533333333351</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="10"/>
+        <v>0.3767520000000002</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>2.1193926336000555</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="12"/>
+        <v>1.629191804611317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="7"/>
+        <v>0.7635040000000004</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="9"/>
+        <v>0.10754266666666679</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>0.46508533333333357</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="10"/>
+        <v>0.3817520000000002</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>2.1028408234852383</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="12"/>
+        <v>1.6184874624176295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="7"/>
+        <v>0.77350400000000041</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="9"/>
+        <v>0.11004266666666677</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="8"/>
+        <v>0.47008533333333352</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="10"/>
+        <v>0.38675200000000021</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>2.0867942495585918</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="12"/>
+        <v>1.6079913785136257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="7"/>
+        <v>0.78350400000000042</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="9"/>
+        <v>0.11254266666666675</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="8"/>
+        <v>0.47508533333333353</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="10"/>
+        <v>0.39175200000000021</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>2.0712265264517864</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="12"/>
+        <v>1.5976968863729328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="7"/>
+        <v>0.79350400000000043</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="9"/>
+        <v>0.11504266666666678</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="8"/>
+        <v>0.48008533333333353</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>0.39675200000000022</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>2.0561131942469451</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="12"/>
+        <v>1.5875976144557711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="7"/>
+        <v>0.80350400000000044</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="9"/>
+        <v>0.1175426666666668</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="8"/>
+        <v>0.48508533333333359</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="10"/>
+        <v>0.40175200000000022</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>2.0414315397246754</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="12"/>
+        <v>1.5776874696361474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="7"/>
+        <v>0.81350400000000045</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="9"/>
+        <v>0.12004266666666678</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="8"/>
+        <v>0.49008533333333354</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="10"/>
+        <v>0.40675200000000022</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>2.0271604376084356</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="12"/>
+        <v>1.5679606217530162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="7"/>
+        <v>0.82350400000000046</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="9"/>
+        <v>0.12254266666666676</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="8"/>
+        <v>0.49508533333333354</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="10"/>
+        <v>0.41175200000000023</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>2.0132802092034199</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>1.5584114891964207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="7"/>
+        <v>0.83350400000000047</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="9"/>
+        <v>0.12504266666666677</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="8"/>
+        <v>0.5000853333333336</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="10"/>
+        <v>0.41675200000000023</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>1.9997724962122314</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="12"/>
+        <v>1.5490347254476522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="7"/>
+        <v>0.84350400000000048</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="9"/>
+        <v>0.1275426666666668</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="8"/>
+        <v>0.50508533333333361</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="10"/>
+        <v>0.42175200000000024</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="11"/>
+        <v>1.9866201478305721</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="12"/>
+        <v>1.5398252064996931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="7"/>
+        <v>0.85350400000000048</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="9"/>
+        <v>0.13004266666666678</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="8"/>
+        <v>0.51008533333333361</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="10"/>
+        <v>0.42675200000000024</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>1.9738071194953344</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="12"/>
+        <v>1.5307780190907017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="7"/>
+        <v>0.86350400000000049</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="9"/>
+        <v>0.13254266666666678</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="8"/>
+        <v>0.51508533333333351</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="10"/>
+        <v>0.43175200000000025</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="11"/>
+        <v>1.9613183818841056</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="12"/>
+        <v>1.5218884496891558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="7"/>
+        <v>0.8735040000000005</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="9"/>
+        <v>0.13504266666666678</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="8"/>
+        <v>0.52008533333333362</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="10"/>
+        <v>0.43675200000000025</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="11"/>
+        <v>1.9491398389564853</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="12"/>
+        <v>1.5131519741745643</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="7"/>
+        <v>0.88350400000000051</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="9"/>
+        <v>0.13754266666666681</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="8"/>
+        <v>0.52508533333333363</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="10"/>
+        <v>0.44175200000000026</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="11"/>
+        <v>1.9372582539898653</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="12"/>
+        <v>1.5045642481624197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="7"/>
+        <v>0.89350400000000052</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="9"/>
+        <v>0.14004266666666679</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="8"/>
+        <v>0.53008533333333363</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="10"/>
+        <v>0.44675200000000026</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="11"/>
+        <v>1.9256611827002768</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="12"/>
+        <v>1.496121097926395</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="7"/>
+        <v>0.90350400000000053</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="9"/>
+        <v>0.14254266666666679</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="8"/>
+        <v>0.53508533333333352</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="10"/>
+        <v>0.45175200000000026</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="11"/>
+        <v>1.9143369126565735</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="12"/>
+        <v>1.4878185118746963</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="7"/>
+        <v>0.91350400000000054</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="9"/>
+        <v>0.14504266666666679</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="8"/>
+        <v>0.54008533333333364</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>0.45675200000000027</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="11"/>
+        <v>1.9032744082968927</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="12"/>
+        <v>1.4796526325410304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="7"/>
+        <v>0.92350400000000055</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="9"/>
+        <v>0.14754266666666682</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="8"/>
+        <v>0.54508533333333364</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>0.46175200000000027</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="11"/>
+        <v>1.892463260942699</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="12"/>
+        <v>1.4716197490538669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="7"/>
+        <v>0.93350400000000056</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="9"/>
+        <v>0.1500426666666668</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="8"/>
+        <v>0.55008533333333365</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>0.46675200000000028</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="11"/>
+        <v>1.8818936432800346</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="12"/>
+        <v>1.4637162900506007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="7"/>
+        <v>0.94350400000000056</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="9"/>
+        <v>0.1525426666666668</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="8"/>
+        <v>0.55508533333333354</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="10"/>
+        <v>0.47175200000000028</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="11"/>
+        <v>1.8715562678416884</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="12"/>
+        <v>1.4559388170058818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="7"/>
+        <v>0.95350400000000057</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="9"/>
+        <v>0.1550426666666668</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="8"/>
+        <v>0.56008533333333366</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="10"/>
+        <v>0.47675200000000029</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="11"/>
+        <v>1.8614423490794543</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="12"/>
+        <v>1.4482840179458047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="7"/>
+        <v>0.96350400000000058</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="9"/>
+        <v>0.15754266666666683</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="8"/>
+        <v>0.56508533333333366</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="10"/>
+        <v>0.48175200000000029</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="11"/>
+        <v>1.8515435686637027</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="12"/>
+        <v>1.4407487015218554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="7"/>
+        <v>0.97350400000000059</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="9"/>
+        <v>0.16004266666666681</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="8"/>
+        <v>0.57008533333333367</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="10"/>
+        <v>0.4867520000000003</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="11"/>
+        <v>1.8418520436892809</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="12"/>
+        <v>1.4333297914205356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="7"/>
+        <v>0.9835040000000006</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="9"/>
+        <v>0.16254266666666681</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="8"/>
+        <v>0.57508533333333356</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="10"/>
+        <v>0.4917520000000003</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="11"/>
+        <v>1.8323602975031421</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="12"/>
+        <v>1.4260243210864205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" ref="A102" si="13">A101+0.01</f>
+        <v>0.99350400000000061</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="9"/>
+        <v>0.16504266666666681</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102" si="14">ABS((-1-6*A102)/12)</f>
+        <v>0.58008533333333367</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="10"/>
+        <v>0.4967520000000003</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="11"/>
+        <v>1.8230612329008942</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="12"/>
+        <v>1.4188294287380896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>